--- a/data_year/zb/文化/群众文化机构基本情况/省、区、直辖市(级)群众文化机构.xlsx
+++ b/data_year/zb/文化/群众文化机构基本情况/省、区、直辖市(级)群众文化机构.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,754 +528,705 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="C2" t="n">
-        <v>214</v>
+        <v>269</v>
       </c>
       <c r="D2" t="n">
-        <v>5774</v>
+        <v>2570</v>
       </c>
       <c r="E2" t="n">
-        <v>1647</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>1698</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.2</v>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>2.35948</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>913</v>
+        <v>1130</v>
       </c>
       <c r="L2" t="n">
-        <v>2.6023</v>
+        <v>3.8</v>
       </c>
       <c r="M2" t="n">
         <v>31</v>
       </c>
       <c r="N2" t="n">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="O2" t="n">
-        <v>796</v>
+        <v>1259</v>
       </c>
       <c r="P2" t="n">
         <v>13.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>109</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>85</v>
+      </c>
+      <c r="R2" t="n">
+        <v>911</v>
+      </c>
       <c r="S2" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="C3" t="n">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="D3" t="n">
-        <v>1672</v>
+        <v>2160</v>
       </c>
       <c r="E3" t="n">
-        <v>1711</v>
+        <v>1720</v>
       </c>
       <c r="F3" t="n">
-        <v>6.322</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+        <v>17.6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>275</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="I3" t="n">
+        <v>187.17</v>
+      </c>
       <c r="J3" t="n">
-        <v>2.93</v>
+        <v>4.36368</v>
       </c>
       <c r="K3" t="n">
-        <v>885</v>
+        <v>1247</v>
       </c>
       <c r="L3" t="n">
-        <v>3.32</v>
+        <v>4.53716</v>
       </c>
       <c r="M3" t="n">
         <v>31</v>
       </c>
       <c r="N3" t="n">
-        <v>635</v>
+        <v>1778</v>
       </c>
       <c r="O3" t="n">
-        <v>976</v>
+        <v>1567</v>
       </c>
       <c r="P3" t="n">
-        <v>10.786</v>
+        <v>11.68</v>
       </c>
       <c r="Q3" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="R3" t="n">
-        <v>2015</v>
+        <v>1381</v>
       </c>
       <c r="S3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C4" t="n">
-        <v>269</v>
+        <v>408</v>
       </c>
       <c r="D4" t="n">
-        <v>2570</v>
+        <v>6283</v>
       </c>
       <c r="E4" t="n">
-        <v>1698</v>
+        <v>1837</v>
       </c>
       <c r="F4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+        <v>21.57</v>
+      </c>
+      <c r="G4" t="n">
+        <v>216.96</v>
+      </c>
+      <c r="H4" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="I4" t="n">
+        <v>212.04</v>
+      </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>5.29029</v>
       </c>
       <c r="K4" t="n">
-        <v>1130</v>
+        <v>1474</v>
       </c>
       <c r="L4" t="n">
-        <v>3.8</v>
+        <v>5.65655</v>
       </c>
       <c r="M4" t="n">
         <v>31</v>
       </c>
       <c r="N4" t="n">
-        <v>460</v>
+        <v>827</v>
       </c>
       <c r="O4" t="n">
-        <v>1259</v>
+        <v>1552</v>
       </c>
       <c r="P4" t="n">
-        <v>13.7</v>
+        <v>11.79</v>
       </c>
       <c r="Q4" t="n">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="R4" t="n">
-        <v>911</v>
+        <v>21333</v>
       </c>
       <c r="S4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C5" t="n">
-        <v>279</v>
+        <v>372</v>
       </c>
       <c r="D5" t="n">
-        <v>2160</v>
+        <v>2019</v>
       </c>
       <c r="E5" t="n">
-        <v>1720</v>
+        <v>1900</v>
       </c>
       <c r="F5" t="n">
-        <v>17.6</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>275</v>
+        <v>583</v>
       </c>
       <c r="H5" t="n">
-        <v>25.74</v>
+        <v>31</v>
       </c>
       <c r="I5" t="n">
-        <v>187.17</v>
+        <v>255</v>
       </c>
       <c r="J5" t="n">
-        <v>4.36368</v>
+        <v>6.8</v>
       </c>
       <c r="K5" t="n">
-        <v>1247</v>
+        <v>2250</v>
       </c>
       <c r="L5" t="n">
-        <v>4.53716</v>
+        <v>7.03</v>
       </c>
       <c r="M5" t="n">
         <v>31</v>
       </c>
       <c r="N5" t="n">
-        <v>1778</v>
+        <v>577</v>
       </c>
       <c r="O5" t="n">
-        <v>1567</v>
+        <v>2066</v>
       </c>
       <c r="P5" t="n">
-        <v>11.68</v>
+        <v>16</v>
       </c>
       <c r="Q5" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="R5" t="n">
-        <v>1381</v>
+        <v>1347</v>
       </c>
       <c r="S5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="C6" t="n">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="D6" t="n">
-        <v>6283</v>
+        <v>2012</v>
       </c>
       <c r="E6" t="n">
-        <v>1837</v>
+        <v>1819</v>
       </c>
       <c r="F6" t="n">
-        <v>21.57</v>
+        <v>32.317</v>
       </c>
       <c r="G6" t="n">
-        <v>216.96</v>
+        <v>2490.525</v>
       </c>
       <c r="H6" t="n">
-        <v>19.06</v>
+        <v>13.53</v>
       </c>
       <c r="I6" t="n">
-        <v>212.04</v>
+        <v>299.073</v>
       </c>
       <c r="J6" t="n">
-        <v>5.29029</v>
+        <v>6.09686</v>
       </c>
       <c r="K6" t="n">
-        <v>1474</v>
+        <v>1973</v>
       </c>
       <c r="L6" t="n">
-        <v>5.65655</v>
+        <v>6.17671</v>
       </c>
       <c r="M6" t="n">
         <v>31</v>
       </c>
       <c r="N6" t="n">
-        <v>827</v>
+        <v>793</v>
       </c>
       <c r="O6" t="n">
-        <v>1552</v>
+        <v>5900</v>
       </c>
       <c r="P6" t="n">
-        <v>11.79</v>
+        <v>17.506</v>
       </c>
       <c r="Q6" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R6" t="n">
-        <v>21333</v>
+        <v>1473</v>
       </c>
       <c r="S6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="C7" t="n">
-        <v>372</v>
+        <v>500</v>
       </c>
       <c r="D7" t="n">
-        <v>2019</v>
+        <v>2100</v>
       </c>
       <c r="E7" t="n">
-        <v>1900</v>
+        <v>1804</v>
       </c>
       <c r="F7" t="n">
-        <v>40</v>
+        <v>19.357</v>
       </c>
       <c r="G7" t="n">
-        <v>583</v>
+        <v>341</v>
       </c>
       <c r="H7" t="n">
-        <v>31</v>
+        <v>15.718</v>
       </c>
       <c r="I7" t="n">
-        <v>255</v>
+        <v>207.497</v>
       </c>
       <c r="J7" t="n">
-        <v>6.8</v>
+        <v>7.37197</v>
       </c>
       <c r="K7" t="n">
-        <v>2250</v>
+        <v>2400</v>
       </c>
       <c r="L7" t="n">
-        <v>7.03</v>
+        <v>7.94626</v>
       </c>
       <c r="M7" t="n">
         <v>31</v>
       </c>
       <c r="N7" t="n">
-        <v>577</v>
+        <v>984</v>
       </c>
       <c r="O7" t="n">
-        <v>2066</v>
+        <v>2700</v>
       </c>
       <c r="P7" t="n">
-        <v>16</v>
+        <v>16.925</v>
       </c>
       <c r="Q7" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="R7" t="n">
-        <v>1347</v>
+        <v>1400</v>
       </c>
       <c r="S7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="C8" t="n">
-        <v>447</v>
+        <v>489</v>
       </c>
       <c r="D8" t="n">
-        <v>2012</v>
+        <v>3332</v>
       </c>
       <c r="E8" t="n">
-        <v>1819</v>
+        <v>1859</v>
       </c>
       <c r="F8" t="n">
-        <v>32.317</v>
+        <v>24.475</v>
       </c>
       <c r="G8" t="n">
-        <v>2490.525</v>
+        <v>421.416</v>
       </c>
       <c r="H8" t="n">
-        <v>13.53</v>
+        <v>14.174</v>
       </c>
       <c r="I8" t="n">
-        <v>299.073</v>
+        <v>196.583</v>
       </c>
       <c r="J8" t="n">
-        <v>6.09686</v>
+        <v>7.1851</v>
       </c>
       <c r="K8" t="n">
-        <v>1973</v>
+        <v>2223</v>
       </c>
       <c r="L8" t="n">
-        <v>6.17671</v>
+        <v>7.90405</v>
       </c>
       <c r="M8" t="n">
         <v>31</v>
       </c>
       <c r="N8" t="n">
-        <v>793</v>
+        <v>969</v>
       </c>
       <c r="O8" t="n">
-        <v>5900</v>
+        <v>2386</v>
       </c>
       <c r="P8" t="n">
-        <v>17.506</v>
+        <v>17.158</v>
       </c>
       <c r="Q8" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="R8" t="n">
-        <v>1473</v>
+        <v>1522</v>
       </c>
       <c r="S8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>200</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E9" t="n">
-        <v>1804</v>
+        <v>1839</v>
       </c>
       <c r="F9" t="n">
-        <v>19.357</v>
+        <v>19.151</v>
       </c>
       <c r="G9" t="n">
-        <v>341</v>
-      </c>
-      <c r="H9" t="n">
-        <v>15.718</v>
-      </c>
+        <v>619.5170000000001</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>207.497</v>
+        <v>246.403</v>
       </c>
       <c r="J9" t="n">
-        <v>7.37197</v>
+        <v>9.415660000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>2400</v>
+        <v>11000</v>
       </c>
       <c r="L9" t="n">
-        <v>7.94626</v>
+        <v>9.388070000000001</v>
       </c>
       <c r="M9" t="n">
         <v>31</v>
       </c>
-      <c r="N9" t="n">
-        <v>984</v>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>2700</v>
-      </c>
-      <c r="P9" t="n">
-        <v>16.925</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="R9" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="S9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>489</v>
+        <v>1000</v>
       </c>
       <c r="D10" t="n">
-        <v>3332</v>
+        <v>4000</v>
       </c>
       <c r="E10" t="n">
-        <v>1859</v>
+        <v>1799</v>
       </c>
       <c r="F10" t="n">
-        <v>24.475</v>
+        <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>421.416</v>
+        <v>1136</v>
       </c>
       <c r="H10" t="n">
-        <v>14.174</v>
+        <v>12</v>
       </c>
       <c r="I10" t="n">
-        <v>196.583</v>
+        <v>216</v>
       </c>
       <c r="J10" t="n">
-        <v>7.1851</v>
+        <v>9.115589999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>2223</v>
+        <v>2000</v>
       </c>
       <c r="L10" t="n">
-        <v>7.90405</v>
+        <v>8.943569999999999</v>
       </c>
       <c r="M10" t="n">
         <v>31</v>
       </c>
       <c r="N10" t="n">
-        <v>969</v>
+        <v>1046</v>
       </c>
       <c r="O10" t="n">
-        <v>2386</v>
-      </c>
-      <c r="P10" t="n">
-        <v>17.158</v>
-      </c>
+        <v>3000</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="R10" t="n">
-        <v>1522</v>
+        <v>2000</v>
       </c>
       <c r="S10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D11" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E11" t="n">
-        <v>1839</v>
+        <v>1792</v>
       </c>
       <c r="F11" t="n">
-        <v>19.151</v>
+        <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>619.5170000000001</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
+        <v>2024</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
       <c r="I11" t="n">
-        <v>246.403</v>
+        <v>381</v>
       </c>
       <c r="J11" t="n">
-        <v>9.415660000000001</v>
+        <v>10.2</v>
       </c>
       <c r="K11" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="L11" t="n">
-        <v>9.388070000000001</v>
+        <v>10.1</v>
       </c>
       <c r="M11" t="n">
         <v>31</v>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>652</v>
+      </c>
       <c r="O11" t="n">
         <v>3000</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="n">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="R11" t="n">
         <v>2000</v>
       </c>
       <c r="S11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>1000</v>
+        <v>543</v>
       </c>
       <c r="D12" t="n">
-        <v>4000</v>
+        <v>3927</v>
       </c>
       <c r="E12" t="n">
-        <v>1799</v>
+        <v>1843</v>
       </c>
       <c r="F12" t="n">
-        <v>23</v>
+        <v>42.47</v>
       </c>
       <c r="G12" t="n">
-        <v>1136</v>
+        <v>446.75</v>
       </c>
       <c r="H12" t="n">
-        <v>12</v>
+        <v>14.47</v>
       </c>
       <c r="I12" t="n">
-        <v>216</v>
+        <v>168.11</v>
       </c>
       <c r="J12" t="n">
-        <v>9.115589999999999</v>
+        <v>10.24881</v>
       </c>
       <c r="K12" t="n">
-        <v>2000</v>
+        <v>2827</v>
       </c>
       <c r="L12" t="n">
-        <v>8.943569999999999</v>
+        <v>10.18836</v>
       </c>
       <c r="M12" t="n">
         <v>31</v>
       </c>
       <c r="N12" t="n">
-        <v>1046</v>
+        <v>559</v>
       </c>
       <c r="O12" t="n">
-        <v>3000</v>
+        <v>1053</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="R12" t="n">
-        <v>2000</v>
+        <v>712</v>
       </c>
       <c r="S12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>1000</v>
+        <v>666</v>
       </c>
       <c r="D13" t="n">
-        <v>3000</v>
+        <v>7290</v>
       </c>
       <c r="E13" t="n">
-        <v>1792</v>
+        <v>1813</v>
       </c>
       <c r="F13" t="n">
-        <v>25</v>
+        <v>28.94</v>
       </c>
       <c r="G13" t="n">
-        <v>2024</v>
+        <v>290.51</v>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>4.41</v>
       </c>
       <c r="I13" t="n">
-        <v>381</v>
+        <v>165.79</v>
       </c>
       <c r="J13" t="n">
-        <v>10.2</v>
+        <v>11.6182</v>
       </c>
       <c r="K13" t="n">
-        <v>3000</v>
+        <v>2598</v>
       </c>
       <c r="L13" t="n">
-        <v>10.1</v>
+        <v>12.02984</v>
       </c>
       <c r="M13" t="n">
         <v>31</v>
       </c>
       <c r="N13" t="n">
-        <v>652</v>
+        <v>284</v>
       </c>
       <c r="O13" t="n">
-        <v>3000</v>
+        <v>1263</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="R13" t="n">
-        <v>2000</v>
+        <v>659</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>543</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3927</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1843</v>
-      </c>
-      <c r="F14" t="n">
-        <v>42.47</v>
-      </c>
-      <c r="G14" t="n">
-        <v>446.75</v>
-      </c>
-      <c r="H14" t="n">
-        <v>14.47</v>
-      </c>
-      <c r="I14" t="n">
-        <v>168.11</v>
-      </c>
-      <c r="J14" t="n">
-        <v>10.24881</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2827</v>
-      </c>
-      <c r="L14" t="n">
-        <v>10.18836</v>
-      </c>
-      <c r="M14" t="n">
-        <v>31</v>
-      </c>
-      <c r="N14" t="n">
-        <v>559</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1053</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="n">
-        <v>128</v>
-      </c>
-      <c r="R14" t="n">
-        <v>712</v>
-      </c>
-      <c r="S14" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
